--- a/QC_QNU_Schedule_final.xlsx
+++ b/QC_QNU_Schedule_final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\training\QNU training\QC_Training_2019_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendant List" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>Training Outline</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Training &amp; Exercise</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -886,48 +889,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -948,12 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,6 +922,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1320,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1565,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L115"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2342,88 +2345,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="19"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="19"/>
       <c r="L3" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
+      <c r="F6" s="86"/>
+      <c r="G6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="86" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="31"/>
       <c r="E8" s="41">
         <f>SUM(E9:E10)</f>
@@ -2441,7 +2444,7 @@
       <c r="B9" s="34">
         <v>1</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2453,11 +2456,11 @@
       <c r="F9" s="35"/>
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="55">
-        <v>43476</v>
-      </c>
-      <c r="J9" s="55">
-        <v>43476</v>
+      <c r="I9" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="6"/>
@@ -2466,7 +2469,7 @@
       <c r="B10" s="34">
         <v>2</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -2478,20 +2481,20 @@
       <c r="F10" s="36"/>
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="55">
-        <v>43476</v>
-      </c>
-      <c r="J10" s="55">
-        <v>43476</v>
+      <c r="I10" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="31"/>
       <c r="E11" s="41">
         <f>SUM(E12:E17)</f>
@@ -2522,10 +2525,10 @@
       <c r="G12" s="12"/>
       <c r="H12" s="10"/>
       <c r="I12" s="55">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="J12" s="55">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="38"/>
@@ -2547,10 +2550,10 @@
       <c r="G13" s="7"/>
       <c r="H13" s="10"/>
       <c r="I13" s="55">
-        <v>43482</v>
+        <v>43479</v>
       </c>
       <c r="J13" s="55">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="6"/>
@@ -2572,10 +2575,10 @@
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
       <c r="I14" s="55">
-        <v>43489</v>
+        <v>43486</v>
       </c>
       <c r="J14" s="55">
-        <v>43493</v>
+        <v>43486</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="6"/>
@@ -2597,16 +2600,16 @@
       <c r="G15" s="7"/>
       <c r="H15" s="10"/>
       <c r="I15" s="55">
-        <v>43496</v>
+        <v>43489</v>
       </c>
       <c r="J15" s="55">
-        <v>43496</v>
+        <v>43489</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="95" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="54" t="s">
@@ -2621,45 +2624,45 @@
       <c r="F16" s="49"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="56">
-        <v>43497</v>
-      </c>
-      <c r="J16" s="56">
-        <v>43497</v>
+      <c r="I16" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91">
+      <c r="D17" s="76"/>
+      <c r="E17" s="77">
         <v>3</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="90"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="56">
-        <v>43497</v>
+        <v>43490</v>
       </c>
       <c r="J17" s="56">
-        <v>43497</v>
+        <v>43490</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="31"/>
       <c r="E18" s="41">
         <f>SUM(E19:E27)</f>
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -2686,10 +2689,10 @@
       <c r="G19" s="12"/>
       <c r="H19" s="10"/>
       <c r="I19" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="J19" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="38"/>
@@ -2698,7 +2701,7 @@
       <c r="B20" s="34">
         <v>2</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="73" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2711,10 +2714,10 @@
       <c r="G20" s="12"/>
       <c r="H20" s="10"/>
       <c r="I20" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="J20" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="38"/>
@@ -2736,10 +2739,10 @@
       <c r="G21" s="12"/>
       <c r="H21" s="10"/>
       <c r="I21" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="J21" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="38"/>
@@ -2761,10 +2764,10 @@
       <c r="G22" s="12"/>
       <c r="H22" s="10"/>
       <c r="I22" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="J22" s="55">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="38"/>
@@ -2786,10 +2789,10 @@
       <c r="G23" s="12"/>
       <c r="H23" s="10"/>
       <c r="I23" s="55">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="J23" s="55">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="38"/>
@@ -2811,10 +2814,10 @@
       <c r="G24" s="12"/>
       <c r="H24" s="10"/>
       <c r="I24" s="55">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="J24" s="55">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="38"/>
@@ -2830,13 +2833,13 @@
         <v>100</v>
       </c>
       <c r="E25" s="42">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="10"/>
       <c r="I25" s="55">
-        <v>43509</v>
+        <v>43516</v>
       </c>
       <c r="J25" s="55">
         <v>43530</v>
@@ -2845,7 +2848,7 @@
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="95" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="54" t="s">
@@ -2870,17 +2873,17 @@
       <c r="L26" s="52"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91">
+      <c r="D27" s="76"/>
+      <c r="E27" s="77">
         <v>4</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="90"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="56">
         <v>43531</v>
       </c>
@@ -2891,10 +2894,10 @@
       <c r="L27" s="51"/>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="31"/>
       <c r="E28" s="41">
         <f>SUM(E29:E35)</f>
@@ -3034,7 +3037,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1">
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="95" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="54" t="s">
@@ -3059,17 +3062,17 @@
       <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1">
-      <c r="B35" s="94"/>
-      <c r="C35" s="92" t="s">
+      <c r="B35" s="96"/>
+      <c r="C35" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91">
+      <c r="D35" s="76"/>
+      <c r="E35" s="77">
         <v>4</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="90"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="56">
         <v>43553</v>
       </c>
@@ -3080,10 +3083,10 @@
       <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="74"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="31"/>
       <c r="E36" s="41">
         <f>SUM(E37:E43)</f>
@@ -3224,7 +3227,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="95" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="54" t="s">
@@ -3249,17 +3252,17 @@
       <c r="L42" s="52"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1">
-      <c r="B43" s="94"/>
-      <c r="C43" s="92" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="91">
+      <c r="D43" s="76"/>
+      <c r="E43" s="77">
         <v>4</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
-      <c r="H43" s="90"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="56">
         <v>43591</v>
       </c>
@@ -3293,35 +3296,35 @@
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="95"/>
-      <c r="C45" s="96" t="s">
+      <c r="B45" s="79"/>
+      <c r="C45" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97">
+      <c r="D45" s="81"/>
+      <c r="E45" s="81">
         <v>24</v>
       </c>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="97"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="57">
         <v>43598</v>
       </c>
       <c r="J45" s="57">
         <v>43600</v>
       </c>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="46">
         <f>SUM(E8+E11+E18+E28+E36+E44+E45)</f>
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -3332,14 +3335,14 @@
       <c r="L46" s="24"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="74" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f>E46/8</f>
-        <v>65.75</v>
+        <v>60.75</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -3350,14 +3353,14 @@
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="74" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="22">
         <f>E47/20</f>
-        <v>3.2875000000000001</v>
+        <v>3.0375000000000001</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -3570,6 +3573,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="B2:J3"/>
@@ -3581,15 +3593,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35:H36 H8 H27:H28 H11 H17:H18 D35:D36 D8 D27:D28 D11 D17:D18 H43 D43">
@@ -3621,28 +3624,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="6" spans="2:10" ht="15.75">
       <c r="B6" s="63" t="s">
@@ -3738,12 +3741,12 @@
       <c r="E20" s="62"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
